--- a/documentation/experiment_tracker.xlsx
+++ b/documentation/experiment_tracker.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -663,6 +663,23 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>Random Forest (GridSearchCV) had a little impact on test set performance and it proved not worth as it is computationally intensive.</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>XGBoost can be used to improve the model's performance as in many Kaggle's competitions.</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>XGBoost looks promising as it has the best score on the train set by far.</t>
         </is>
       </c>
     </row>
@@ -677,7 +694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1117,6 +1134,34 @@
         </is>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>XGBoost</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>['temp', 'rhum', 'dayofweek', 'holiday', 'timesofday', 'wdsp', 'rainfall_intensity', 'peak', 'working_day', 'hour', 'season']</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{'objective': 'reg:squarederror', 'base_score': 0.5, 'booster': 'gbtree', 'colsample_bylevel': 1, 'colsample_bynode': 1, 'colsample_bytree': 1, 'gamma': 0, 'gpu_id': -1, 'importance_type': 'gain', 'interaction_constraints': '', 'learning_rate': 0.300000012, 'max_delta_step': 0, 'max_depth': 10, 'min_child_weight': 1, 'missing': nan, 'monotone_constraints': '()', 'n_estimators': 100, 'n_jobs': 4, 'num_parallel_tree': 1, 'random_state': 42, 'reg_alpha': 0, 'reg_lambda': 1, 'scale_pos_weight': 1, 'subsample': 1, 'tree_method': 'exact', 'validate_parameters': 1, 'verbosity': 0, 'seed': 42, 'eval_metric': 'rmse'}</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>[{ 'metric': RSME, 'train': 0.3049,  'validation': 2.7813, 'test': None }, { 'metric': MAE, 'train': 0.2062,  'validation': 2.0181, 'test': None }]</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>14/06/2022 22:33:00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
